--- a/project planning/API User-Stories.xlsx
+++ b/project planning/API User-Stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Resilio Sync\Daniel Schor\Studium\Module\Aktuell\WebApp\Projekt\Repo\webappproject23-24-devteam\project planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6473FED-E3C2-4E7E-B859-F6D360D14FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52220477-907A-4FB8-94B8-4A343962B223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{931FE84D-C72A-4ACF-8CA4-2ADC1B79A70D}"/>
+    <workbookView xWindow="14295" yWindow="-16200" windowWidth="14610" windowHeight="15705" xr2:uid="{931FE84D-C72A-4ACF-8CA4-2ADC1B79A70D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Nr.</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>ein Event angeben</t>
+  </si>
+  <si>
+    <t>einen User mit UserID angeben</t>
+  </si>
+  <si>
+    <t>ein Event mit EventID angeben</t>
+  </si>
+  <si>
+    <t>ich die Teilnehmer des Events finde.</t>
   </si>
 </sst>
 </file>
@@ -167,10 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -207,8 +215,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89C8FE82-6F26-4AA4-8E44-94F35486AC83}" name="Tabelle1" displayName="Tabelle1" ref="B3:E16" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="B3:E16" xr:uid="{89C8FE82-6F26-4AA4-8E44-94F35486AC83}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89C8FE82-6F26-4AA4-8E44-94F35486AC83}" name="Tabelle1" displayName="Tabelle1" ref="B3:E17" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="B3:E17" xr:uid="{89C8FE82-6F26-4AA4-8E44-94F35486AC83}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6DD5E186-AA16-4B52-95A4-93223060A0AB}" name="Nr."/>
     <tableColumn id="2" xr3:uid="{D51BA1D4-DDB9-42AA-BFB1-C0FB8E729D94}" name="Als…"/>
@@ -516,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDA27C0-D300-4EAA-A2A0-6AEA1960C2EE}">
-  <dimension ref="B3:E16"/>
+  <dimension ref="B3:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,16 +540,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -560,58 +568,58 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -630,100 +638,114 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" t="s">
         <v>24</v>
       </c>
     </row>

--- a/project planning/API User-Stories.xlsx
+++ b/project planning/API User-Stories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7EF3307-B36C-4692-A271-B1081A35E744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C60693-F0F2-4C6F-9C79-95823FD3F015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{931FE84D-C72A-4ACF-8CA4-2ADC1B79A70D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{931FE84D-C72A-4ACF-8CA4-2ADC1B79A70D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Nr.</t>
   </si>
@@ -53,82 +53,100 @@
     <t>Nutzer</t>
   </si>
   <si>
-    <t>eine Liste aller vorhandener User Abfragen</t>
-  </si>
-  <si>
-    <t>eine UserID angeben</t>
-  </si>
-  <si>
-    <t>einen User angeben</t>
-  </si>
-  <si>
-    <t>ich den entsprechenden User lösche.</t>
-  </si>
-  <si>
-    <t>ich den passenden User editiere.</t>
-  </si>
-  <si>
-    <t>ich einen neuen User erstelle.</t>
-  </si>
-  <si>
-    <t>ich den dazugehörigen User finde.</t>
-  </si>
-  <si>
-    <t>ich eine Übersicht der vorhandenen User habe.</t>
-  </si>
-  <si>
-    <t>eine Liste aller vorhandener Events Abfragen</t>
-  </si>
-  <si>
-    <t>eine EventID angeben</t>
-  </si>
-  <si>
-    <t>ich eine Übersicht der vorhandenen Events habe.</t>
-  </si>
-  <si>
-    <t>ich das dazugehörige Event finde.</t>
-  </si>
-  <si>
-    <t>ich ein neues Event erstelle.</t>
-  </si>
-  <si>
-    <t>ich das passende Event editiere.</t>
-  </si>
-  <si>
-    <t>ich das entsprechende Event lösche.</t>
-  </si>
-  <si>
-    <t>eine EventID und eine UserID angeben</t>
-  </si>
-  <si>
-    <t>ich einen User einem Event hinzufüge.</t>
-  </si>
-  <si>
-    <t>ich einen User von einem Event entferne.</t>
-  </si>
-  <si>
-    <t>eine EventID, UserID und eine Ganzzahl angeben</t>
-  </si>
-  <si>
-    <t>ich eine Bewertung von einem User einem Event hinzufüge.</t>
-  </si>
-  <si>
-    <t>ein Event angeben</t>
-  </si>
-  <si>
     <t>einen User mit UserID angeben</t>
   </si>
   <si>
-    <t>ein Event mit EventID angeben</t>
-  </si>
-  <si>
-    <t>ich die Teilnehmer des Events finde.</t>
-  </si>
-  <si>
-    <t>eine UserID erhalten</t>
-  </si>
-  <si>
-    <t>eine EventID abfragen</t>
+    <t>ich einen User unter einer spzifischen URL bearbeiten oder, falls dieser nicht existiert, erstellen kann.</t>
+  </si>
+  <si>
+    <t>eine spzifische UserID abrufen</t>
+  </si>
+  <si>
+    <t>ich die Details des Users angezeigt bekomme.</t>
+  </si>
+  <si>
+    <t>einen User erstellen</t>
+  </si>
+  <si>
+    <t>dieser User bestimme Funktionen oder Dienste der Anwendung erhält.</t>
+  </si>
+  <si>
+    <t>eine Liste der registrieten User abrufen</t>
+  </si>
+  <si>
+    <t>ich einen Überblick über alle Userkonten erhalte und diese verwalten kann.</t>
+  </si>
+  <si>
+    <t>spezifische Userdaten aktualisieren</t>
+  </si>
+  <si>
+    <t>ich Daten ändern kann, ohne diese alle erneute eingeben zu müssen.</t>
+  </si>
+  <si>
+    <t>ein spezifisches Userprofil löschen</t>
+  </si>
+  <si>
+    <t>ich meine Daten vollständig aus der Anwendung entfernen kann.</t>
+  </si>
+  <si>
+    <t>eine Liste aller vorhandener Events abfragen</t>
+  </si>
+  <si>
+    <t>ich einen Überblick der vorhandenen Events habe.</t>
+  </si>
+  <si>
+    <t>Informationen über ein spezifisches Event abrufen</t>
+  </si>
+  <si>
+    <t>ich alle Details erfahren kann, um zu entscheiden, ob ich teilnehmen möchte.</t>
+  </si>
+  <si>
+    <t>eine Liste aller Teilnehmer eines bestimmten Events abrufen</t>
+  </si>
+  <si>
+    <t>ich weiß wer am Event teilnimmt, und ich mich mit diesen Personen vernetzen und vorbereiten kann.</t>
+  </si>
+  <si>
+    <t>ein Event erstellen und zu veröffentlichen</t>
+  </si>
+  <si>
+    <t>ich andere Nutzer einladen und sie über die Details informieren kann.</t>
+  </si>
+  <si>
+    <t>ein Event aktualisieren können</t>
+  </si>
+  <si>
+    <t>ich Änderungen an den Details des Events vornehmen kann.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spezifische Details eines Events teilweise aktualiseren </t>
+  </si>
+  <si>
+    <t>ich schnell auf Änderungen reagieren kann, ohne alle Event-Informationen erneut einreichen zu müssen.</t>
+  </si>
+  <si>
+    <t>ein Event löschen kann</t>
+  </si>
+  <si>
+    <t>ich es aus dem Veranstaltungskalender entfernen kann, falls es abgesagt wird oder nicht stattfinden kann.</t>
+  </si>
+  <si>
+    <t>einen User direkt zu meinem Event hinzufügen</t>
+  </si>
+  <si>
+    <t>ich sicherstellen kann, dass bestimme Personen als Teilnehmer meines Events registriert sind</t>
+  </si>
+  <si>
+    <t>einen User einen Teilnehmer aus der Teilnehmerliste eines Events entfernen</t>
+  </si>
+  <si>
+    <t>ich die Teilnehmerlsite aktuell halten und auf Änderungen reagieren kann.</t>
+  </si>
+  <si>
+    <t>ein Event nach dessen Beendigung bewerten können</t>
+  </si>
+  <si>
+    <t>ich Feedbackzu diesem Event bekommen kann und zukünftigen Teilnehmern eine Orientierung bieten kann.</t>
   </si>
 </sst>
 </file>
@@ -188,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -221,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89C8FE82-6F26-4AA4-8E44-94F35486AC83}" name="Tabelle1" displayName="Tabelle1" ref="B3:E17" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="B3:E17" xr:uid="{89C8FE82-6F26-4AA4-8E44-94F35486AC83}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89C8FE82-6F26-4AA4-8E44-94F35486AC83}" name="Tabelle1" displayName="Tabelle1" ref="B3:E19" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="B3:E19" xr:uid="{89C8FE82-6F26-4AA4-8E44-94F35486AC83}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6DD5E186-AA16-4B52-95A4-93223060A0AB}" name="Nr."/>
     <tableColumn id="2" xr3:uid="{D51BA1D4-DDB9-42AA-BFB1-C0FB8E729D94}" name="Als…"/>
@@ -234,7 +252,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -533,15 +551,15 @@
   <dimension ref="B3:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60" customWidth="1"/>
+    <col min="4" max="4" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -567,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -581,10 +599,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -595,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -609,10 +627,10 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -622,11 +640,11 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -636,11 +654,11 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -650,11 +668,11 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -665,10 +683,10 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -679,10 +697,10 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -693,10 +711,10 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -706,11 +724,11 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -720,11 +738,11 @@
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -734,11 +752,11 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -749,10 +767,38 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">

--- a/project planning/API User-Stories.xlsx
+++ b/project planning/API User-Stories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UNI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be1a3b426ae73013/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C60693-F0F2-4C6F-9C79-95823FD3F015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{716D3CA5-14DA-46AB-A9F9-0B589376682A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D32E5D44-26B0-485C-A7A3-7901D4EB87D4}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{931FE84D-C72A-4ACF-8CA4-2ADC1B79A70D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{931FE84D-C72A-4ACF-8CA4-2ADC1B79A70D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Nr.</t>
   </si>
@@ -53,100 +53,76 @@
     <t>Nutzer</t>
   </si>
   <si>
-    <t>einen User mit UserID angeben</t>
-  </si>
-  <si>
-    <t>ich einen User unter einer spzifischen URL bearbeiten oder, falls dieser nicht existiert, erstellen kann.</t>
-  </si>
-  <si>
-    <t>eine spzifische UserID abrufen</t>
-  </si>
-  <si>
-    <t>ich die Details des Users angezeigt bekomme.</t>
-  </si>
-  <si>
     <t>einen User erstellen</t>
   </si>
   <si>
-    <t>dieser User bestimme Funktionen oder Dienste der Anwendung erhält.</t>
-  </si>
-  <si>
     <t>eine Liste der registrieten User abrufen</t>
   </si>
   <si>
-    <t>ich einen Überblick über alle Userkonten erhalte und diese verwalten kann.</t>
-  </si>
-  <si>
-    <t>spezifische Userdaten aktualisieren</t>
-  </si>
-  <si>
-    <t>ich Daten ändern kann, ohne diese alle erneute eingeben zu müssen.</t>
-  </si>
-  <si>
-    <t>ein spezifisches Userprofil löschen</t>
-  </si>
-  <si>
-    <t>ich meine Daten vollständig aus der Anwendung entfernen kann.</t>
-  </si>
-  <si>
     <t>eine Liste aller vorhandener Events abfragen</t>
   </si>
   <si>
     <t>ich einen Überblick der vorhandenen Events habe.</t>
   </si>
   <si>
-    <t>Informationen über ein spezifisches Event abrufen</t>
-  </si>
-  <si>
-    <t>ich alle Details erfahren kann, um zu entscheiden, ob ich teilnehmen möchte.</t>
-  </si>
-  <si>
-    <t>eine Liste aller Teilnehmer eines bestimmten Events abrufen</t>
-  </si>
-  <si>
-    <t>ich weiß wer am Event teilnimmt, und ich mich mit diesen Personen vernetzen und vorbereiten kann.</t>
-  </si>
-  <si>
-    <t>ein Event erstellen und zu veröffentlichen</t>
-  </si>
-  <si>
-    <t>ich andere Nutzer einladen und sie über die Details informieren kann.</t>
-  </si>
-  <si>
-    <t>ein Event aktualisieren können</t>
-  </si>
-  <si>
-    <t>ich Änderungen an den Details des Events vornehmen kann.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spezifische Details eines Events teilweise aktualiseren </t>
-  </si>
-  <si>
-    <t>ich schnell auf Änderungen reagieren kann, ohne alle Event-Informationen erneut einreichen zu müssen.</t>
-  </si>
-  <si>
-    <t>ein Event löschen kann</t>
-  </si>
-  <si>
-    <t>ich es aus dem Veranstaltungskalender entfernen kann, falls es abgesagt wird oder nicht stattfinden kann.</t>
-  </si>
-  <si>
-    <t>einen User direkt zu meinem Event hinzufügen</t>
-  </si>
-  <si>
-    <t>ich sicherstellen kann, dass bestimme Personen als Teilnehmer meines Events registriert sind</t>
-  </si>
-  <si>
-    <t>einen User einen Teilnehmer aus der Teilnehmerliste eines Events entfernen</t>
-  </si>
-  <si>
-    <t>ich die Teilnehmerlsite aktuell halten und auf Änderungen reagieren kann.</t>
-  </si>
-  <si>
-    <t>ein Event nach dessen Beendigung bewerten können</t>
-  </si>
-  <si>
-    <t>ich Feedbackzu diesem Event bekommen kann und zukünftigen Teilnehmern eine Orientierung bieten kann.</t>
+    <t>eine EventID, UserID und ein Rating angeben</t>
+  </si>
+  <si>
+    <t>eine EventID und UserID angeben</t>
+  </si>
+  <si>
+    <t>ich einen User von einem Event entfernen kann.</t>
+  </si>
+  <si>
+    <t>ich einen User zu einem Event hinzufügen kann.</t>
+  </si>
+  <si>
+    <t>eine EventID angeben</t>
+  </si>
+  <si>
+    <t>ich ein Event löschen kann.</t>
+  </si>
+  <si>
+    <t>ich teilweiße Updates an einem Event durchführen kann.</t>
+  </si>
+  <si>
+    <t>ich ein Event aktualiseren kann.</t>
+  </si>
+  <si>
+    <t>ein Event erstellen</t>
+  </si>
+  <si>
+    <t>ich Event mit Details erstellen kann.</t>
+  </si>
+  <si>
+    <t>ich die Teilnehmerliste für ein Event sehen kann.</t>
+  </si>
+  <si>
+    <t>ich ein Event einsehen kann.</t>
+  </si>
+  <si>
+    <t>eine UserID angeben</t>
+  </si>
+  <si>
+    <t>ich diesen User löschen kann.</t>
+  </si>
+  <si>
+    <t>ich teilweiße die Details des Users ändern kann.</t>
+  </si>
+  <si>
+    <t>ich einen User aktualisieren kann.</t>
+  </si>
+  <si>
+    <t>ich einen User mit Details erstellen kann.</t>
+  </si>
+  <si>
+    <t>ich die Details des Users einsehen kann.</t>
+  </si>
+  <si>
+    <t>ich einen Überblick über die registrieten User sehen kann.</t>
+  </si>
+  <si>
+    <t>ich einem Event eine Userbewertung zuteilen kann.</t>
   </si>
 </sst>
 </file>
@@ -170,20 +146,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -203,10 +170,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -252,7 +219,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -551,19 +518,19 @@
   <dimension ref="B3:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -577,257 +544,319 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
